--- a/RegisRevoComparison/images/REGIS_REVO_Comparison.xlsx
+++ b/RegisRevoComparison/images/REGIS_REVO_Comparison.xlsx
@@ -16,13 +16,16 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>Q-Year</t>
+  </si>
   <si>
     <t>Entity</t>
   </si>
@@ -45,34 +48,58 @@
     <t>REVO</t>
   </si>
   <si>
-    <t>Allison Pearce</t>
-  </si>
-  <si>
-    <t>ARE</t>
+    <t>Q4-2021</t>
+  </si>
+  <si>
+    <t>ARL</t>
+  </si>
+  <si>
+    <t>437283-001-2020</t>
+  </si>
+  <si>
+    <t>Andrew Mendonca</t>
+  </si>
+  <si>
+    <t>PC %</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>10/31/2021</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <t>437561-001-2021</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>2.5000</t>
+  </si>
+  <si>
+    <t>FET Taxs</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>681417-101-2021</t>
-  </si>
-  <si>
-    <t>C. Valandis Elpidorou</t>
-  </si>
-  <si>
-    <t>Reinsurer</t>
-  </si>
-  <si>
-    <t>Arch Reinsurance Ltd. (Europe)</t>
-  </si>
-  <si>
-    <t>Arch Reinsurance Ltd. (Bermuda)</t>
-  </si>
-  <si>
-    <t>681417-201-2021</t>
-  </si>
-  <si>
-    <t>681417-301-2021</t>
   </si>
 </sst>
 </file>
@@ -128,56 +155,59 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Kasim, Mohamed" refreshedDate="44481.834375115737" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Kasim, Mohamed" refreshedDate="44523.647164699076" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="5">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C3:J1048576" sheet="Datagrid"/>
+    <worksheetSource name="Datagrid"/>
   </cacheSource>
   <cacheFields count="8">
+    <cacheField name="Q-Year" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Q4-2021"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Entity" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="ARE"/>
-        <m/>
+      <sharedItems count="1">
+        <s v="ARL"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MasterKey" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="681417-101-2021"/>
-        <s v="681417-201-2021"/>
-        <s v="681417-301-2021"/>
-        <m/>
+      <sharedItems count="2">
+        <s v="437283-001-2020"/>
+        <s v="437561-001-2021"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
     <cacheField name="Underwriter" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="C. Valandis Elpidorou"/>
-        <m/>
+      <sharedItems count="1">
+        <s v="Andrew Mendonca"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Rel Underwriter" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="Allison Pearce"/>
-        <m/>
+      <sharedItems count="1">
+        <s v="Andrew Mendonca"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Field Difference" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="Reinsurer"/>
-        <m/>
+      <sharedItems count="5">
+        <s v="PC %"/>
+        <s v="Expiry Date"/>
+        <s v="Brokerage"/>
+        <s v="FET Taxs"/>
+        <s v="Commission"/>
       </sharedItems>
     </cacheField>
     <cacheField name="REGIS" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="Arch Reinsurance Ltd. (Europe)"/>
-        <m/>
+      <sharedItems count="5">
+        <s v="20.0000"/>
+        <s v="10/31/2021"/>
+        <s v="2.5000"/>
+        <s v="1.0000"/>
+        <s v="30.0000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="REVO" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="Arch Reinsurance Ltd. (Bermuda)"/>
-        <m/>
+      <sharedItems count="2">
+        <s v="0.0000"/>
+        <s v="11/01/2021"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -190,11 +220,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Bound"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -203,66 +233,59 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <s v="Bound"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Bound"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:M8" firstHeaderRow="2" firstDataRow="2" firstDataCol="7"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:N10" firstHeaderRow="2" firstDataRow="2" firstDataCol="8"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="1">
         <item x="0"/>
-        <item x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="1">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item h="1" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -272,9 +295,31 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -285,16 +330,17 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="7">
+  <rowFields count="8">
+    <field x="0"/>
     <field x="4"/>
     <field x="3"/>
-    <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
     <field x="5"/>
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
       <x/>
       <x/>
@@ -303,17 +349,27 @@
       <x/>
       <x/>
       <x/>
+      <x/>
     </i>
-    <i r="3">
+    <i r="5">
       <x v="1"/>
-      <x/>
-      <x/>
-      <x/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
-    <i r="3">
+    <i r="4">
+      <x v="1"/>
       <x v="2"/>
-      <x/>
-      <x/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="5">
+      <x v="3"/>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="5">
+      <x v="4"/>
+      <x v="4"/>
       <x/>
     </i>
     <i t="grand">
@@ -617,38 +673,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G8"/>
+  <dimension ref="A4:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -656,61 +712,86 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
